--- a/docs/P3 - Sprint 1 Artifacts.xlsx
+++ b/docs/P3 - Sprint 1 Artifacts.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29421"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77802A22-156F-4B84-BC0C-F73CFA58DD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8A76038-9C73-4A4B-B1C2-175EC48EA959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -81,6 +81,18 @@
     <t>Complete. We now have a database server setup remotely that is accessible for this project. See dbconnection/postgresql_info.md in GitHub (Figure 5).</t>
   </si>
   <si>
+    <t>After logging in, show the logged-in user's dashboard by default</t>
+  </si>
+  <si>
+    <t>Complete. On log-in, it shows the logged-in user's dashboard. See Figure 1.</t>
+  </si>
+  <si>
+    <t>On application launch, display a log-in with Spotify landing page</t>
+  </si>
+  <si>
+    <t>Complete. When the application is launched, by default it shows the login with Spotify landing page. See Figure 2.</t>
+  </si>
+  <si>
     <t>Display user's username on user's dashboard</t>
   </si>
   <si>
@@ -93,19 +105,37 @@
     <t xml:space="preserve">Complete. We display the user's profile picture on their dashboard. See Figure 1. </t>
   </si>
   <si>
+    <t>Derive formula to calculate diversity score based on genres listened to</t>
+  </si>
+  <si>
+    <t>Complete. See the initial architecture overview document. Also see Figure 6.</t>
+  </si>
+  <si>
+    <t>Derive formula to calculate a music taste rating based on the average of a series of listening histories</t>
+  </si>
+  <si>
+    <t>Complete. See the initial architecture overview document. Also see Figure 7.</t>
+  </si>
+  <si>
+    <t>Figure 3. The loading screen while fetching data from Spotify.</t>
+  </si>
+  <si>
+    <t>Figure 1. The current dashboard page.</t>
+  </si>
+  <si>
+    <t>Figure 4. Spotify's authorization service's sign-in page.</t>
+  </si>
+  <si>
     <t>Figure 2. The login page.</t>
   </si>
   <si>
-    <t>Figure 1. The current dashboard page.</t>
-  </si>
-  <si>
-    <t>Figure 3. The loading screen while fetching data from Spotify.</t>
-  </si>
-  <si>
-    <t>Figure 4. Spotify's authorization service's sign-in page.</t>
-  </si>
-  <si>
     <t>Figure 5. The database connection information.</t>
+  </si>
+  <si>
+    <t>Figure 6. The genre diversity score formula.</t>
+  </si>
+  <si>
+    <t>Figure 7. The music taste rating score formula.</t>
   </si>
 </sst>
 </file>
@@ -135,7 +165,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -154,11 +184,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -177,6 +238,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -186,13 +265,13 @@
       <alignment wrapText="1"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -214,26 +293,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>4572000</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 28">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CC35704-92C3-455A-9A8A-E933C05D7DAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A5B97B8-A28D-49A5-AFB7-B43DCF6DCA99}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4E0A9C60-D875-4639-8D31-C60E4294B27D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F093D3B1-5587-471F-8CBE-F354E29C417F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -249,8 +328,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9896475" y="4924425"/>
-          <a:ext cx="4572000" cy="1143000"/>
+          <a:off x="1905000" y="8343900"/>
+          <a:ext cx="4572000" cy="1600200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -261,26 +340,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>4572000</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Picture 30">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD04B760-8501-4087-9818-308F505B12CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9E1BF51-E181-435B-B919-5AE32F20D6C7}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1CC35704-92C3-455A-9A8A-E933C05D7DAB}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7A5B97B8-A28D-49A5-AFB7-B43DCF6DCA99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -296,8 +375,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9896475" y="2257425"/>
-          <a:ext cx="4572000" cy="1600200"/>
+          <a:off x="1905000" y="4152900"/>
+          <a:ext cx="4572000" cy="3048000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -310,24 +389,24 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>4572000</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Picture 33">
+        <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0D8C17C-660A-47C2-B1E1-7E6DF430D03F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64BDC1DF-1207-47DE-9971-C06165204C3E}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E2906FDF-BC63-C899-3CFD-D690F776808E}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{907F437E-C082-48D2-B01F-9363FA3E77A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -343,7 +422,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9896475" y="6638925"/>
+          <a:off x="9896475" y="5276850"/>
           <a:ext cx="4572000" cy="2667000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -355,26 +434,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Picture 35">
+        <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4728E12-08CB-4B24-96A8-4F6401D5C31E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B7B31C5-1974-479C-A6D0-C810729D4D70}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C0D8C17C-660A-47C2-B1E1-7E6DF430D03F}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{64BDC1DF-1207-47DE-9971-C06165204C3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -390,8 +469,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1905000" y="2447925"/>
-          <a:ext cx="4572000" cy="3048000"/>
+          <a:off x="9896475" y="8515350"/>
+          <a:ext cx="9258300" cy="3324225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -402,26 +481,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>847725</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Picture 37">
+        <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4FD3FFC-CC9D-4A2A-B77B-98D11D88928A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD367980-3AF5-4EA4-BC8E-A12AB50FDD06}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E4728E12-08CB-4B24-96A8-4F6401D5C31E}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1B7B31C5-1974-479C-A6D0-C810729D4D70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -437,8 +516,102 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="6438900"/>
-          <a:ext cx="9258300" cy="3324225"/>
+          <a:off x="9896475" y="4295775"/>
+          <a:ext cx="4572000" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2419350</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C21164C-46A8-CB39-073F-83532AE536B3}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DD367980-3AF5-4EA4-BC8E-A12AB50FDD06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="11534775"/>
+          <a:ext cx="2419350" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1971675</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF62B039-7F0F-315D-37A9-007A58535892}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5C21164C-46A8-CB39-073F-83532AE536B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="13249275"/>
+          <a:ext cx="1971675" cy="628650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -451,8 +624,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C182DF48-B301-4845-AE71-EA0474D3CA67}" name="Table1" displayName="Table1" ref="A1:F8" totalsRowShown="0" dataDxfId="4">
-  <autoFilter ref="A1:F8" xr:uid="{C182DF48-B301-4845-AE71-EA0474D3CA67}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C182DF48-B301-4845-AE71-EA0474D3CA67}" name="Table1" displayName="Table1" ref="A1:F12" totalsRowShown="0" dataDxfId="4">
+  <autoFilter ref="A1:F12" xr:uid="{C182DF48-B301-4845-AE71-EA0474D3CA67}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F6">
     <sortCondition ref="A1:A6"/>
   </sortState>
@@ -785,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F12" sqref="F11:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -828,13 +1001,13 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -848,13 +1021,13 @@
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>13</v>
       </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -868,13 +1041,13 @@
       <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>2</v>
       </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -888,13 +1061,13 @@
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>3</v>
       </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -908,82 +1081,138 @@
       <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>3</v>
       </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4">
+    <row r="7" spans="1:6" ht="29.25">
+      <c r="A7" s="3">
+        <v>16</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="29.25">
+      <c r="A8" s="3">
+        <v>17</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4">
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="4">
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3">
         <v>2</v>
       </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="29.25">
+      <c r="A11" s="9">
+        <v>22</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="11">
+        <v>5</v>
+      </c>
+      <c r="D11" s="11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="12">
+        <v>1</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="43.5">
+      <c r="A12" s="9">
+        <v>24</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="11">
+        <v>5</v>
+      </c>
+      <c r="D12" s="11">
+        <v>2</v>
+      </c>
+      <c r="E12" s="12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="4"/>
@@ -1026,9 +1255,6 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="7" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="4"/>
@@ -1040,6 +1266,9 @@
       <c r="A21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
+      <c r="F21" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="4"/>
@@ -1069,27 +1298,43 @@
       <c r="A27" s="4"/>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:6">
-      <c r="B28" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
     <row r="30" spans="1:6">
-      <c r="F30" s="7" t="s">
-        <v>22</v>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="F37" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="7"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="F47" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" t="s">
-        <v>24</v>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="F58" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1102,6 +1347,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF0891E31D3F4748B96BA1AD6C8516D0" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0e6a7620b83dbdb6bccc61e22e4ed2fa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b3dee608-f3e3-4732-bac7-04ace8bc815d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25b88dee9cc6fe20bc8c4b3e1587c0f6" ns2:_="">
     <xsd:import namespace="b3dee608-f3e3-4732-bac7-04ace8bc815d"/>
@@ -1239,15 +1493,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1255,11 +1500,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F39C4BFA-CDF4-4DA6-8944-B085E9D6068E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E1F5261-E9CC-4A1D-B0A3-0402ABCB30CD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E1F5261-E9CC-4A1D-B0A3-0402ABCB30CD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F39C4BFA-CDF4-4DA6-8944-B085E9D6068E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
